--- a/data/financial_statements/socf/ACN.xlsx
+++ b/data/financial_statements/socf/ACN.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -475,132 +589,132 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41333</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
         <v>1996300000</v>
@@ -724,23 +838,23 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>506229000</v>
+        <v>506000000</v>
       </c>
       <c r="C3">
-        <v>534905000</v>
+        <v>-243000000</v>
       </c>
       <c r="D3">
-        <v>524186000</v>
+        <v>524000000</v>
       </c>
       <c r="E3">
-        <v>528260000</v>
+        <v>528000000</v>
       </c>
       <c r="F3">
-        <v>500865000</v>
+        <v>501000000</v>
       </c>
       <c r="G3">
         <v>486281000</v>
@@ -849,8 +963,8 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
         <v>370932000</v>
@@ -974,8 +1088,8 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
         <v>-609000000</v>
@@ -1081,8 +1195,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>-202182000</v>
@@ -1206,23 +1320,23 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>-771743000</v>
+        <v>-202000000</v>
       </c>
       <c r="C7">
-        <v>782256000</v>
+        <v>232000000</v>
       </c>
       <c r="D7">
-        <v>1031217000</v>
+        <v>188000000</v>
       </c>
       <c r="E7">
-        <v>-264509000</v>
+        <v>13000000</v>
       </c>
       <c r="F7">
-        <v>-276965000</v>
+        <v>-59000000</v>
       </c>
       <c r="G7">
         <v>529603000</v>
@@ -1331,8 +1445,8 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
         <v>115187000</v>
@@ -1456,23 +1570,23 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>-1473385000</v>
+        <v>-919000000</v>
       </c>
       <c r="C9">
-        <v>356722000</v>
+        <v>-12000000</v>
       </c>
       <c r="D9">
-        <v>-1008312000</v>
+        <v>-226000000</v>
       </c>
       <c r="E9">
-        <v>-366450000</v>
+        <v>95000000</v>
       </c>
       <c r="F9">
-        <v>-1908188000</v>
+        <v>-584000000</v>
       </c>
       <c r="G9">
         <v>-584283000</v>
@@ -1581,8 +1695,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>-45940000</v>
@@ -1706,23 +1820,23 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>495398000</v>
+        <v>495000000</v>
       </c>
       <c r="C11">
-        <v>3790110000</v>
+        <v>3790000000</v>
       </c>
       <c r="D11">
-        <v>3064655000</v>
+        <v>3065000000</v>
       </c>
       <c r="E11">
-        <v>2155493000</v>
+        <v>2155000000</v>
       </c>
       <c r="F11">
-        <v>530871000</v>
+        <v>531000000</v>
       </c>
       <c r="G11">
         <v>2436432000</v>
@@ -1831,8 +1945,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>-98830000</v>
@@ -1956,23 +2070,23 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>-685864000</v>
+        <v>-686000000</v>
       </c>
       <c r="C13">
-        <v>-1234724000</v>
+        <v>-1235000000</v>
       </c>
       <c r="D13">
-        <v>-475274000</v>
+        <v>-364000000</v>
       </c>
       <c r="E13">
-        <v>-110272000</v>
+        <v>-114000000</v>
       </c>
       <c r="F13">
-        <v>-1734941000</v>
+        <v>-1735000000</v>
       </c>
       <c r="G13">
         <v>-2622986000</v>
@@ -2081,23 +2195,23 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>2620000</v>
+        <v>-14000000</v>
       </c>
       <c r="C14">
-        <v>3183000</v>
+        <v>-24000000</v>
       </c>
       <c r="D14">
-        <v>2936000</v>
+        <v>-10000000</v>
       </c>
       <c r="E14">
-        <v>2430000</v>
+        <v>-13000000</v>
       </c>
       <c r="F14">
-        <v>4031000</v>
+        <v>-13000000</v>
       </c>
       <c r="G14">
         <v>7965000</v>
@@ -2149,23 +2263,23 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>-782074000</v>
+        <v>-782000000</v>
       </c>
       <c r="C15">
-        <v>-1408592000</v>
+        <v>-1409000000</v>
       </c>
       <c r="D15">
-        <v>-666954000</v>
+        <v>-667000000</v>
       </c>
       <c r="E15">
-        <v>-272502000</v>
+        <v>-273000000</v>
       </c>
       <c r="F15">
-        <v>-1912581000</v>
+        <v>-1913000000</v>
       </c>
       <c r="G15">
         <v>-2851316000</v>
@@ -2274,23 +2388,23 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>-1611000</v>
+        <v>-2000000</v>
       </c>
       <c r="C16">
-        <v>-4923000</v>
+        <v>-5000000</v>
       </c>
       <c r="D16">
-        <v>-2653000</v>
+        <v>-3000000</v>
       </c>
       <c r="E16">
-        <v>-5429000</v>
+        <v>-5000000</v>
       </c>
       <c r="F16">
-        <v>-3448000</v>
+        <v>-3000000</v>
       </c>
       <c r="G16">
         <v>-6512000</v>
@@ -2399,8 +2513,8 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>-952995000</v>
@@ -2524,23 +2638,23 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>-705567000</v>
+        <v>-706000000</v>
       </c>
       <c r="C18">
-        <v>-613730000</v>
+        <v>-613000000</v>
       </c>
       <c r="D18">
-        <v>-613785000</v>
+        <v>-613000000</v>
       </c>
       <c r="E18">
-        <v>-616583000</v>
+        <v>-616000000</v>
       </c>
       <c r="F18">
-        <v>-613208000</v>
+        <v>-613000000</v>
       </c>
       <c r="G18">
         <v>-557930000</v>
@@ -2649,23 +2763,23 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>-16687000</v>
+        <v>363000000</v>
       </c>
       <c r="C19">
-        <v>-26485000</v>
+        <v>1015000000</v>
       </c>
       <c r="D19">
-        <v>-12804000</v>
+        <v>405000000</v>
       </c>
       <c r="E19">
-        <v>-14096000</v>
+        <v>492000000</v>
       </c>
       <c r="F19">
-        <v>-16568000</v>
+        <v>278000000</v>
       </c>
       <c r="G19">
         <v>-14906000</v>
@@ -2774,23 +2888,23 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>-1676860000</v>
+        <v>-1677000000</v>
       </c>
       <c r="C20">
-        <v>-1101412000</v>
+        <v>-1101000000</v>
       </c>
       <c r="D20">
-        <v>-1103439000</v>
+        <v>-1103000000</v>
       </c>
       <c r="E20">
-        <v>-2036715000</v>
+        <v>-2037000000</v>
       </c>
       <c r="F20">
-        <v>-1069460000</v>
+        <v>-1069000000</v>
       </c>
       <c r="G20">
         <v>-1367785000</v>
@@ -2899,8 +3013,8 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>-26594000</v>
@@ -3024,23 +3138,23 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>-1990130000</v>
+        <v>-1990000000</v>
       </c>
       <c r="C22">
-        <v>1186265000</v>
+        <v>1186000000</v>
       </c>
       <c r="D22">
-        <v>1237452000</v>
+        <v>1237000000</v>
       </c>
       <c r="E22">
-        <v>-171001000</v>
+        <v>-171000000</v>
       </c>
       <c r="F22">
-        <v>-2531057000</v>
+        <v>-2531000000</v>
       </c>
       <c r="G22">
         <v>-1841206000</v>
@@ -3149,8 +3263,8 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>7889833000</v>
@@ -3274,8 +3388,8 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>5899703000</v>
@@ -3399,8 +3513,8 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>425469000</v>
@@ -3524,8 +3638,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>-705567000</v>
@@ -3649,8 +3763,8 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>-0.0137</v>
@@ -3774,8 +3888,8 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>-2332123000</v>
@@ -3899,8 +4013,8 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>-952995000</v>
@@ -4024,8 +4138,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>-952995000</v>
